--- a/embedded/TouchGFX/assets/texts/texts.xlsx
+++ b/embedded/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="84">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t xml:space="preserve">Timer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
   </si>
 </sst>
 </file>
@@ -1895,6 +1901,23 @@
         <v>81</v>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
